--- a/Figure Generating/data/RNA_Location_Metadata.xlsx
+++ b/Figure Generating/data/RNA_Location_Metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\Figure Generating\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F459A0-2F4A-4E19-A2D8-26DCF582B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687D43D4-8B05-4864-8916-E06E20C8070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="319">
   <si>
     <t>TARA_A100000165</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>North Atlantic</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1050,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1348,11 +1350,12 @@
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>300</v>
       </c>
@@ -1371,17 +1374,20 @@
       <c r="F1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,17 +1407,20 @@
         <v>208.245</v>
       </c>
       <c r="G2">
-        <v>0.22</v>
+        <v>21.486650000000001</v>
       </c>
       <c r="H2">
+        <v>0.22</v>
+      </c>
+      <c r="I2">
         <v>1.6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>LOG(D2)</f>
         <v>0.69897000433601886</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1431,17 +1440,20 @@
         <v>233.87875</v>
       </c>
       <c r="G3">
-        <v>0.22</v>
+        <v>21.821300000000001</v>
       </c>
       <c r="H3">
+        <v>0.22</v>
+      </c>
+      <c r="I3">
         <v>1.6</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">LOG(D3)</f>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
+      <c r="J3">
+        <f>LOG(D3)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1461,17 +1473,20 @@
         <v>188.341917</v>
       </c>
       <c r="G4">
-        <v>0.22</v>
+        <v>25.811707999999999</v>
       </c>
       <c r="H4">
+        <v>0.22</v>
+      </c>
+      <c r="I4">
         <v>1.6</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
+      <c r="J4">
+        <f>LOG(D4)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1491,17 +1506,20 @@
         <v>183.589125</v>
       </c>
       <c r="G5">
-        <v>0.22</v>
+        <v>27.309699999999999</v>
       </c>
       <c r="H5">
+        <v>0.22</v>
+      </c>
+      <c r="I5">
         <v>1.6</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
+      <c r="J5">
+        <f>LOG(D5)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1521,17 +1539,20 @@
         <v>189.91675000000001</v>
       </c>
       <c r="G6">
-        <v>0.22</v>
+        <v>25.028099999999998</v>
       </c>
       <c r="H6">
+        <v>0.22</v>
+      </c>
+      <c r="I6">
         <v>1.6</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
+      <c r="J6">
+        <f>LOG(D6)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1551,17 +1572,20 @@
         <v>246.40525</v>
       </c>
       <c r="G7">
-        <v>0.22</v>
+        <v>20.073699999999999</v>
       </c>
       <c r="H7">
+        <v>0.22</v>
+      </c>
+      <c r="I7">
         <v>1.6</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+      <c r="J7">
+        <f>LOG(D7)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1581,17 +1605,20 @@
         <v>208.725167</v>
       </c>
       <c r="G8">
-        <v>0.22</v>
+        <v>20.858567000000001</v>
       </c>
       <c r="H8">
+        <v>0.22</v>
+      </c>
+      <c r="I8">
         <v>1.6</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6">
+      <c r="J8">
+        <f>LOG(D8)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1611,17 +1638,20 @@
         <v>2.9502000000000002</v>
       </c>
       <c r="G9">
-        <v>0.22</v>
+        <v>14.901445000000001</v>
       </c>
       <c r="H9">
+        <v>0.22</v>
+      </c>
+      <c r="I9">
         <v>1.6</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="J9">
+        <f>LOG(D9)</f>
         <v>2.5314789170422549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:10" ht="15.6">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1641,17 +1671,20 @@
         <v>193.065313</v>
       </c>
       <c r="G10">
-        <v>0.22</v>
+        <v>27.089113000000001</v>
       </c>
       <c r="H10">
+        <v>0.22</v>
+      </c>
+      <c r="I10">
         <v>1.6</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6">
+      <c r="J10">
+        <f>LOG(D10)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1671,17 +1704,20 @@
         <v>187.47614999999999</v>
       </c>
       <c r="G11">
-        <v>0.22</v>
+        <v>26.692435</v>
       </c>
       <c r="H11">
+        <v>0.22</v>
+      </c>
+      <c r="I11">
         <v>1.6</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="J11">
+        <f>LOG(D11)</f>
         <v>1.3979400086720377</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1701,17 +1737,20 @@
         <v>3.12405</v>
       </c>
       <c r="G12">
-        <v>0.22</v>
+        <v>15.553794999999999</v>
       </c>
       <c r="H12">
+        <v>0.22</v>
+      </c>
+      <c r="I12">
         <v>1.6</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="J12">
+        <f>LOG(D12)</f>
         <v>2.4313637641589874</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1731,17 +1770,20 @@
         <v>192.98599999999999</v>
       </c>
       <c r="G13">
-        <v>0.22</v>
+        <v>27.584135</v>
       </c>
       <c r="H13">
+        <v>0.22</v>
+      </c>
+      <c r="I13">
         <v>1.6</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6">
+      <c r="J13">
+        <f>LOG(D13)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1761,17 +1803,20 @@
         <v>59.307850000000002</v>
       </c>
       <c r="G14">
-        <v>0.22</v>
+        <v>23.625385000000001</v>
       </c>
       <c r="H14">
+        <v>0.22</v>
+      </c>
+      <c r="I14">
         <v>1.6</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="J14">
+        <f>LOG(D14)</f>
         <v>1.8750612633917001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,17 +1836,20 @@
         <v>2.9460500000000001</v>
       </c>
       <c r="G15">
-        <v>0.22</v>
+        <v>15.070404999999999</v>
       </c>
       <c r="H15">
+        <v>0.22</v>
+      </c>
+      <c r="I15">
         <v>1.6</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="J15">
+        <f>LOG(D15)</f>
         <v>2.4548448600085102</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1821,17 +1869,20 @@
         <v>188.79575</v>
       </c>
       <c r="G16">
-        <v>0.22</v>
+        <v>30.127849999999999</v>
       </c>
       <c r="H16">
+        <v>0.22</v>
+      </c>
+      <c r="I16">
         <v>1.6</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6">
+      <c r="J16">
+        <f>LOG(D16)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1851,17 +1902,20 @@
         <v>137.99808300000001</v>
       </c>
       <c r="G17">
-        <v>0.22</v>
+        <v>27.956099999999999</v>
       </c>
       <c r="H17">
+        <v>0.22</v>
+      </c>
+      <c r="I17">
         <v>1.6</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
+      <c r="J17">
+        <f>LOG(D17)</f>
         <v>1.9030899869919435</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:10" ht="15.6">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1881,17 +1935,20 @@
         <v>190.26525000000001</v>
       </c>
       <c r="G18">
-        <v>0.22</v>
+        <v>29.938974999999999</v>
       </c>
       <c r="H18">
+        <v>0.22</v>
+      </c>
+      <c r="I18">
         <v>1.6</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6">
+      <c r="J18">
+        <f>LOG(D18)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1911,17 +1968,20 @@
         <v>194.35730000000001</v>
       </c>
       <c r="G19">
-        <v>0.22</v>
+        <v>27.549299999999999</v>
       </c>
       <c r="H19">
+        <v>0.22</v>
+      </c>
+      <c r="I19">
         <v>1.6</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6">
+      <c r="J19">
+        <f>LOG(D19)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1941,17 +2001,20 @@
         <v>194.43391700000001</v>
       </c>
       <c r="G20">
-        <v>0.22</v>
+        <v>27.488382999999999</v>
       </c>
       <c r="H20">
+        <v>0.22</v>
+      </c>
+      <c r="I20">
         <v>1.6</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6">
+      <c r="J20">
+        <f>LOG(D20)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1971,17 +2034,20 @@
         <v>191.628083</v>
       </c>
       <c r="G21">
-        <v>0.22</v>
+        <v>27.956482999999999</v>
       </c>
       <c r="H21">
+        <v>0.22</v>
+      </c>
+      <c r="I21">
         <v>1.6</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6">
+      <c r="J21">
+        <f>LOG(D21)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2001,17 +2067,20 @@
         <v>194.81774999999999</v>
       </c>
       <c r="G22">
-        <v>0.22</v>
+        <v>25.212641999999999</v>
       </c>
       <c r="H22">
+        <v>0.22</v>
+      </c>
+      <c r="I22">
         <v>1.6</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
+      <c r="J22">
+        <f>LOG(D22)</f>
         <v>1.8750612633917001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2031,17 +2100,20 @@
         <v>192.54949999999999</v>
       </c>
       <c r="G23">
-        <v>0.22</v>
+        <v>28.2729</v>
       </c>
       <c r="H23">
+        <v>0.22</v>
+      </c>
+      <c r="I23">
         <v>1.6</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6">
+      <c r="J23">
+        <f>LOG(D23)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2061,17 +2133,20 @@
         <v>187.3595</v>
       </c>
       <c r="G24">
-        <v>0.22</v>
+        <v>30.159949999999998</v>
       </c>
       <c r="H24">
+        <v>0.22</v>
+      </c>
+      <c r="I24">
         <v>1.6</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6">
+      <c r="J24">
+        <f>LOG(D24)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,17 +2166,20 @@
         <v>185.755</v>
       </c>
       <c r="G25">
-        <v>0.22</v>
+        <v>30.124749999999999</v>
       </c>
       <c r="H25">
+        <v>0.22</v>
+      </c>
+      <c r="I25">
         <v>1.6</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6">
+      <c r="J25">
+        <f>LOG(D25)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2121,17 +2199,20 @@
         <v>187.75135</v>
       </c>
       <c r="G26">
-        <v>0.22</v>
+        <v>30.520164999999999</v>
       </c>
       <c r="H26">
+        <v>0.22</v>
+      </c>
+      <c r="I26">
         <v>1.6</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6">
+      <c r="J26">
+        <f>LOG(D26)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2151,17 +2232,20 @@
         <v>187.306625</v>
       </c>
       <c r="G27">
-        <v>0.22</v>
+        <v>29.151544000000001</v>
       </c>
       <c r="H27">
+        <v>0.22</v>
+      </c>
+      <c r="I27">
         <v>1.6</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6">
+      <c r="J27">
+        <f>LOG(D27)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2181,17 +2265,20 @@
         <v>164.44006300000001</v>
       </c>
       <c r="G28">
-        <v>0.22</v>
+        <v>27.374181</v>
       </c>
       <c r="H28">
+        <v>0.22</v>
+      </c>
+      <c r="I28">
         <v>1.6</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
+      <c r="J28">
+        <f>LOG(D28)</f>
         <v>1.7781512503836436</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:10" ht="15.6">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -2211,17 +2298,20 @@
         <v>2.8162500000000001</v>
       </c>
       <c r="G29">
-        <v>0.22</v>
+        <v>11.984006000000001</v>
       </c>
       <c r="H29">
+        <v>0.22</v>
+      </c>
+      <c r="I29">
         <v>1.6</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
+      <c r="J29">
+        <f>LOG(D29)</f>
         <v>2.7781512503836434</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -2241,17 +2331,20 @@
         <v>193.59375</v>
       </c>
       <c r="G30">
-        <v>0.22</v>
+        <v>28.915400000000002</v>
       </c>
       <c r="H30">
+        <v>0.22</v>
+      </c>
+      <c r="I30">
         <v>1.6</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6">
+      <c r="J30">
+        <f>LOG(D30)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -2271,17 +2364,20 @@
         <v>189.67949999999999</v>
       </c>
       <c r="G31">
-        <v>0.22</v>
+        <v>29.305762999999999</v>
       </c>
       <c r="H31">
+        <v>0.22</v>
+      </c>
+      <c r="I31">
         <v>1.6</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.6">
+      <c r="J31">
+        <f>LOG(D31)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -2301,17 +2397,20 @@
         <v>199.13499999999999</v>
       </c>
       <c r="G32">
-        <v>0.22</v>
+        <v>25.064425</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <f>LOG(D32)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -2331,17 +2430,20 @@
         <v>190.5966</v>
       </c>
       <c r="G33">
-        <v>0.22</v>
+        <v>23.630095000000001</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f>LOG(D33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2361,17 +2463,20 @@
         <v>201.167125</v>
       </c>
       <c r="G34">
-        <v>0.22</v>
+        <v>23.804400000000001</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f>LOG(D34)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2391,17 +2496,20 @@
         <v>161.92525000000001</v>
       </c>
       <c r="G35">
-        <v>0.22</v>
+        <v>4.188237</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <f>LOG(D35)</f>
         <v>2.9030899869919438</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -2421,17 +2529,20 @@
         <v>215.20070000000001</v>
       </c>
       <c r="G36">
-        <v>0.22</v>
+        <v>19.770009999999999</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <f>LOG(D36)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2451,17 +2562,20 @@
         <v>234.47630000000001</v>
       </c>
       <c r="G37">
-        <v>0.22</v>
+        <v>16.863199999999999</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f>LOG(D37)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -2481,17 +2595,20 @@
         <v>231.97739999999999</v>
       </c>
       <c r="G38">
-        <v>0.22</v>
+        <v>16.74878</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <f>LOG(D38)</f>
         <v>1.6989700043360187</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -2511,17 +2628,20 @@
         <v>252.63145</v>
       </c>
       <c r="G39">
-        <v>0.22</v>
+        <v>13.04322</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <f>LOG(D39)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
@@ -2541,17 +2661,20 @@
         <v>206.23185000000001</v>
       </c>
       <c r="G40">
-        <v>0.22</v>
+        <v>23.374825000000001</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <f>LOG(D40)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -2571,17 +2694,20 @@
         <v>200.32464999999999</v>
       </c>
       <c r="G41">
-        <v>0.22</v>
+        <v>21.165959999999998</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f>LOG(D41)</f>
         <v>2.1760912590556813</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:10" ht="15.6">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -2601,17 +2727,20 @@
         <v>221.13845000000001</v>
       </c>
       <c r="G42">
-        <v>0.22</v>
+        <v>20.077750000000002</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <f>LOG(D42)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -2631,17 +2760,20 @@
         <v>216.65469999999999</v>
       </c>
       <c r="G43">
-        <v>0.22</v>
+        <v>19.323350000000001</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <f>LOG(D43)</f>
         <v>2.0791812460476247</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2661,17 +2793,20 @@
         <v>392.56</v>
       </c>
       <c r="G44">
-        <v>0.22</v>
+        <v>-0.27324999999999999</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <f>LOG(D44)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -2691,17 +2826,20 @@
         <v>209.1003</v>
       </c>
       <c r="G45">
-        <v>0.22</v>
+        <v>22.781829999999999</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f>LOG(D45)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -2721,17 +2859,20 @@
         <v>208.54894999999999</v>
       </c>
       <c r="G46">
-        <v>0.22</v>
+        <v>19.783275</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <f>LOG(D46)</f>
         <v>1.954242509439325</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:10" ht="15.6">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
@@ -2751,17 +2892,20 @@
         <v>202.99600000000001</v>
       </c>
       <c r="G47">
-        <v>0.22</v>
+        <v>23.791125000000001</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <f>LOG(D47)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -2781,17 +2925,20 @@
         <v>180.67375000000001</v>
       </c>
       <c r="G48">
-        <v>0.22</v>
+        <v>26.218437999999999</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <f>LOG(D48)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -2811,17 +2958,20 @@
         <v>177.67306300000001</v>
       </c>
       <c r="G49">
-        <v>0.22</v>
+        <v>26.139288000000001</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <f>LOG(D49)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -2841,17 +2991,20 @@
         <v>185.28475</v>
       </c>
       <c r="G50">
-        <v>0.22</v>
+        <v>28.295439999999999</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <f>LOG(D50)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -2871,17 +3024,20 @@
         <v>183.1609</v>
       </c>
       <c r="G51">
-        <v>0.22</v>
+        <v>28.308434999999999</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <f>LOG(D51)</f>
         <v>1.9294189257142926</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
@@ -2901,17 +3057,20 @@
         <v>194.93045000000001</v>
       </c>
       <c r="G52">
-        <v>0.22</v>
+        <v>26.275304999999999</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <f>LOG(D52)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -2931,17 +3090,20 @@
         <v>204.16884999999999</v>
       </c>
       <c r="G53">
-        <v>0.22</v>
+        <v>22.307700000000001</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <f>LOG(D53)</f>
         <v>2.0413926851582249</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:10" ht="15.6">
       <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
@@ -2961,17 +3123,20 @@
         <v>22.289750000000002</v>
       </c>
       <c r="G54">
-        <v>0.22</v>
+        <v>4.6637060000000004</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <f>LOG(D54)</f>
         <v>2.8727388274726686</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:10" ht="15.6">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2991,17 +3156,20 @@
         <v>197.72450000000001</v>
       </c>
       <c r="G55">
-        <v>0.22</v>
+        <v>25.164594999999998</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <f>LOG(D55)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.6">
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
@@ -3021,17 +3189,20 @@
         <v>222.94125</v>
       </c>
       <c r="G56">
-        <v>0.22</v>
+        <v>15.321075</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <f>LOG(D56)</f>
         <v>2.0606978403536118</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="1" t="s">
         <v>96</v>
       </c>
@@ -3051,17 +3222,20 @@
         <v>190.378187</v>
       </c>
       <c r="G57">
-        <v>0.22</v>
+        <v>26.572419</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <f>LOG(D57)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.6">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -3081,17 +3255,20 @@
         <v>172.42474999999999</v>
       </c>
       <c r="G58">
-        <v>0.22</v>
+        <v>24.813970000000001</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <f>LOG(D58)</f>
         <v>2.0791812460476247</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:10" ht="15.6">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -3111,17 +3288,20 @@
         <v>40.610700000000001</v>
       </c>
       <c r="G59">
-        <v>0.22</v>
+        <v>7.1339949999999996</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <f>LOG(D59)</f>
         <v>2.7781512503836434</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:10" ht="15.6">
       <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
@@ -3141,17 +3321,20 @@
         <v>189.67009999999999</v>
       </c>
       <c r="G60">
-        <v>0.22</v>
+        <v>26.586684999999999</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <f>LOG(D60)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.6">
       <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
@@ -3171,17 +3354,20 @@
         <v>158.18405000000001</v>
       </c>
       <c r="G61">
-        <v>0.22</v>
+        <v>21.97372</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <f>LOG(D61)</f>
         <v>2.1760912590556813</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:10" ht="15.6">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -3201,17 +3387,20 @@
         <v>178.36920000000001</v>
       </c>
       <c r="G62">
-        <v>0.22</v>
+        <v>24.661384999999999</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <f>LOG(D62)</f>
         <v>2.0606978403536118</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:10" ht="15.6">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
@@ -3231,17 +3420,20 @@
         <v>222.46629999999999</v>
       </c>
       <c r="G63">
-        <v>0.22</v>
+        <v>19.934570000000001</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <f>LOG(D63)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.6">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
@@ -3261,17 +3453,20 @@
         <v>191.41318699999999</v>
       </c>
       <c r="G64">
-        <v>0.22</v>
+        <v>4.6642749999999999</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <f>LOG(D64)</f>
         <v>2.9030899869919438</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="1" t="s">
         <v>108</v>
       </c>
@@ -3291,17 +3486,20 @@
         <v>294.22874999999999</v>
       </c>
       <c r="G65">
-        <v>0.22</v>
+        <v>7.1260500000000002</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <f>LOG(D65)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="1" t="s">
         <v>110</v>
       </c>
@@ -3321,17 +3519,20 @@
         <v>306.15550000000002</v>
       </c>
       <c r="G66">
-        <v>0.22</v>
+        <v>7.1548749999999997</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <f>LOG(D66)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="1" t="s">
         <v>112</v>
       </c>
@@ -3351,17 +3552,20 @@
         <v>303.14766700000001</v>
       </c>
       <c r="G67">
-        <v>0.22</v>
+        <v>7.5794170000000003</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="1">LOG(D67)</f>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <f>LOG(D67)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="1" t="s">
         <v>113</v>
       </c>
@@ -3381,17 +3585,20 @@
         <v>338.52600000000001</v>
       </c>
       <c r="G68">
-        <v>0.22</v>
+        <v>1.9034</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <f>LOG(D68)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="1" t="s">
         <v>115</v>
       </c>
@@ -3411,17 +3618,20 @@
         <v>344.81234999999998</v>
       </c>
       <c r="G69">
-        <v>0.22</v>
+        <v>0.73158999999999996</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <f>LOG(D69)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="1" t="s">
         <v>117</v>
       </c>
@@ -3441,17 +3651,20 @@
         <v>326.68029999999999</v>
       </c>
       <c r="G70">
-        <v>0.22</v>
+        <v>-0.79239499999999996</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I70">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <f>LOG(D70)</f>
         <v>1.954242509439325</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:10" ht="15.6">
       <c r="A71" s="1" t="s">
         <v>118</v>
       </c>
@@ -3471,17 +3684,20 @@
         <v>234.16575</v>
       </c>
       <c r="G71">
-        <v>0.22</v>
+        <v>17.02685</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <f>LOG(D71)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
@@ -3501,17 +3717,20 @@
         <v>398.31212499999998</v>
       </c>
       <c r="G72">
-        <v>0.22</v>
+        <v>-0.49437500000000001</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <f>LOG(D72)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.6">
       <c r="A73" s="1" t="s">
         <v>122</v>
       </c>
@@ -3531,17 +3750,20 @@
         <v>319.74700000000001</v>
       </c>
       <c r="G73">
-        <v>0.22</v>
+        <v>-1.6387</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <f>LOG(D73)</f>
         <v>1.5440680443502757</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="1" t="s">
         <v>123</v>
       </c>
@@ -3561,17 +3783,20 @@
         <v>255.26575</v>
       </c>
       <c r="G74">
-        <v>0.22</v>
+        <v>13.6805</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <f>LOG(D74)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="1" t="s">
         <v>125</v>
       </c>
@@ -3591,17 +3816,20 @@
         <v>256.63475</v>
       </c>
       <c r="G75">
-        <v>0.22</v>
+        <v>13.506225000000001</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <f>LOG(D75)</f>
         <v>1.5440680443502757</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:10" ht="15.6">
       <c r="A76" s="1" t="s">
         <v>126</v>
       </c>
@@ -3621,17 +3849,20 @@
         <v>335.24299999999999</v>
       </c>
       <c r="G76">
-        <v>0.22</v>
+        <v>-0.76342500000000002</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <f>LOG(D76)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
@@ -3651,17 +3882,20 @@
         <v>289.726</v>
       </c>
       <c r="G77">
-        <v>0.22</v>
+        <v>5.8263999999999996</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <f>LOG(D77)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
@@ -3681,17 +3915,20 @@
         <v>229.39400000000001</v>
       </c>
       <c r="G78">
-        <v>0.22</v>
+        <v>17.608499999999999</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <f>LOG(D78)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="1" t="s">
         <v>132</v>
       </c>
@@ -3711,17 +3948,20 @@
         <v>245.3235</v>
       </c>
       <c r="G79">
-        <v>0.22</v>
+        <v>15.912324999999999</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <f>LOG(D79)</f>
         <v>0.95424250943932487</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="1" t="s">
         <v>134</v>
       </c>
@@ -3741,17 +3981,20 @@
         <v>203.37975</v>
       </c>
       <c r="G80">
-        <v>0.22</v>
+        <v>23.889250000000001</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I80">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <f>LOG(D80)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.6">
       <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
@@ -3771,17 +4014,20 @@
         <v>204.42099999999999</v>
       </c>
       <c r="G81">
-        <v>0.22</v>
+        <v>24.958884999999999</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <f>LOG(D81)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.6">
       <c r="A82" s="1" t="s">
         <v>138</v>
       </c>
@@ -3801,17 +4047,20 @@
         <v>104.99679999999999</v>
       </c>
       <c r="G82">
-        <v>0.22</v>
+        <v>19.781234999999999</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <f>LOG(D82)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:10" ht="15.6">
       <c r="A83" s="1" t="s">
         <v>139</v>
       </c>
@@ -3831,17 +4080,20 @@
         <v>194.91499999999999</v>
       </c>
       <c r="G83">
-        <v>0.22</v>
+        <v>25.702575</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <f>LOG(D83)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
@@ -3861,17 +4113,20 @@
         <v>165.27019999999999</v>
       </c>
       <c r="G84">
-        <v>0.22</v>
+        <v>23.450479999999999</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <f>LOG(D84)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:10" ht="15.6">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
@@ -3891,17 +4146,20 @@
         <v>5.0336499999999997</v>
       </c>
       <c r="G85">
-        <v>0.22</v>
+        <v>10.222825</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <f>LOG(D85)</f>
         <v>2.5797835966168101</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:10" ht="15.6">
       <c r="A86" s="1" t="s">
         <v>143</v>
       </c>
@@ -3921,17 +4179,20 @@
         <v>199.69110000000001</v>
       </c>
       <c r="G86">
-        <v>0.22</v>
+        <v>27.497475000000001</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <f>LOG(D86)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="1" t="s">
         <v>145</v>
       </c>
@@ -3951,17 +4212,20 @@
         <v>199.83029999999999</v>
       </c>
       <c r="G87">
-        <v>0.22</v>
+        <v>26.019185</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <f>LOG(D87)</f>
         <v>1.4771212547196624</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:10" ht="15.6">
       <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
@@ -3981,17 +4245,20 @@
         <v>2.2645620000000002</v>
       </c>
       <c r="G88">
-        <v>0.22</v>
+        <v>11.142362</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <f>LOG(D88)</f>
         <v>2.5797835966168101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:10" ht="15.6">
       <c r="A89" s="1" t="s">
         <v>147</v>
       </c>
@@ -4011,17 +4278,20 @@
         <v>201.67019999999999</v>
       </c>
       <c r="G89">
-        <v>0.22</v>
+        <v>24.262869999999999</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <f>LOG(D89)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.6">
       <c r="A90" s="1" t="s">
         <v>149</v>
       </c>
@@ -4041,17 +4311,20 @@
         <v>206.43459999999999</v>
       </c>
       <c r="G90">
-        <v>0.22</v>
+        <v>21.949369999999998</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <f>LOG(D90)</f>
         <v>2.1903316981702914</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:10" ht="15.6">
       <c r="A91" s="1" t="s">
         <v>150</v>
       </c>
@@ -4071,17 +4344,20 @@
         <v>5.1479999999999997</v>
       </c>
       <c r="G91">
-        <v>0.22</v>
+        <v>9.1374379999999995</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <f>LOG(D91)</f>
         <v>2.6812412373755872</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:10" ht="15.6">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -4101,17 +4377,20 @@
         <v>3.4942000000000002</v>
       </c>
       <c r="G92">
-        <v>0.22</v>
+        <v>12.806365</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <f>LOG(D92)</f>
         <v>2.2479732663618068</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:10" ht="15.6">
       <c r="A93" s="1" t="s">
         <v>153</v>
       </c>
@@ -4131,17 +4410,20 @@
         <v>201.01089999999999</v>
       </c>
       <c r="G93">
-        <v>0.22</v>
+        <v>25.349495000000001</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <f>LOG(D93)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.6">
       <c r="A94" s="1" t="s">
         <v>154</v>
       </c>
@@ -4161,17 +4443,20 @@
         <v>216.67805000000001</v>
       </c>
       <c r="G94">
-        <v>0.22</v>
+        <v>22.596675000000001</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <f>LOG(D94)</f>
         <v>1.6989700043360187</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:10" ht="15.6">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -4191,17 +4476,20 @@
         <v>214.770062</v>
       </c>
       <c r="G95">
-        <v>0.22</v>
+        <v>18.478414999999998</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <f>LOG(D95)</f>
         <v>2.2430380486862944</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:10" ht="15.6">
       <c r="A96" s="1" t="s">
         <v>157</v>
       </c>
@@ -4221,17 +4509,20 @@
         <v>204.54175000000001</v>
       </c>
       <c r="G96">
-        <v>0.22</v>
+        <v>23.845330000000001</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <f>LOG(D96)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.6">
       <c r="A97" s="1" t="s">
         <v>159</v>
       </c>
@@ -4251,17 +4542,20 @@
         <v>220.19104999999999</v>
       </c>
       <c r="G97">
-        <v>0.22</v>
+        <v>18.126439999999999</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <f>LOG(D97)</f>
         <v>2.1903316981702914</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:10" ht="15.6">
       <c r="A98" s="1" t="s">
         <v>160</v>
       </c>
@@ -4281,17 +4575,20 @@
         <v>200.81125</v>
       </c>
       <c r="G98">
-        <v>0.22</v>
+        <v>24.716415000000001</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I98">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <f>LOG(D98)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.6">
       <c r="A99" s="1" t="s">
         <v>161</v>
       </c>
@@ -4311,17 +4608,20 @@
         <v>196.39224999999999</v>
       </c>
       <c r="G99">
-        <v>0.22</v>
+        <v>12.677925</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I99">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <f>LOG(D99)</f>
         <v>2.4913616938342726</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:10" ht="15.6">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
@@ -4341,17 +4641,20 @@
         <v>154.67009999999999</v>
       </c>
       <c r="G100">
-        <v>0.22</v>
+        <v>7.9683700000000002</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I100">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <f>LOG(D100)</f>
         <v>2.6884198220027105</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:10" ht="15.6">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -4371,17 +4674,20 @@
         <v>200.40835000000001</v>
       </c>
       <c r="G101">
-        <v>0.22</v>
+        <v>25.18103</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I101">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <f>LOG(D101)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.6">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -4401,17 +4707,20 @@
         <v>208.821</v>
       </c>
       <c r="G102">
-        <v>0.22</v>
+        <v>20.212700000000002</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I102">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <f>LOG(D102)</f>
         <v>2.27415784926368</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:10" ht="15.6">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -4431,17 +4740,20 @@
         <v>227.76089999999999</v>
       </c>
       <c r="G103">
-        <v>0.22</v>
+        <v>15.376875</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I103">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <f>LOG(D103)</f>
         <v>1.5440680443502757</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:10" ht="15.6">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -4461,17 +4773,20 @@
         <v>243.04079999999999</v>
       </c>
       <c r="G104">
-        <v>0.22</v>
+        <v>18.122955000000001</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I104">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <f>LOG(D104)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.6">
       <c r="A105" s="1" t="s">
         <v>169</v>
       </c>
@@ -4491,17 +4806,20 @@
         <v>2.4397500000000001</v>
       </c>
       <c r="G105">
-        <v>0.22</v>
+        <v>10.082375000000001</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I105">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <f>LOG(D105)</f>
         <v>2.5797835966168101</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:10" ht="15.6">
       <c r="A106" s="1" t="s">
         <v>171</v>
       </c>
@@ -4521,17 +4839,20 @@
         <v>223.15899999999999</v>
       </c>
       <c r="G106">
-        <v>0.22</v>
+        <v>19.24802</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I106">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <f>LOG(D106)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.6">
       <c r="A107" s="1" t="s">
         <v>173</v>
       </c>
@@ -4551,17 +4872,20 @@
         <v>236.1591</v>
       </c>
       <c r="G107">
-        <v>0.22</v>
+        <v>13.874504999999999</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I107">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <f>LOG(D107)</f>
         <v>1.6532125137753437</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:10" ht="15.6">
       <c r="A108" s="1" t="s">
         <v>174</v>
       </c>
@@ -4581,17 +4905,20 @@
         <v>191.91255000000001</v>
       </c>
       <c r="G108">
-        <v>0.22</v>
+        <v>23.888159999999999</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I108">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <f>LOG(D108)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.6">
       <c r="A109" s="1" t="s">
         <v>175</v>
       </c>
@@ -4611,17 +4938,20 @@
         <v>145.08179999999999</v>
       </c>
       <c r="G109">
-        <v>0.22</v>
+        <v>22.039784999999998</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I109">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <f>LOG(D109)</f>
         <v>1.6989700043360187</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:10" ht="15.6">
       <c r="A110" s="1" t="s">
         <v>176</v>
       </c>
@@ -4641,17 +4971,20 @@
         <v>187.07695000000001</v>
       </c>
       <c r="G110">
-        <v>0.22</v>
+        <v>26.604669999999999</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I110">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <f>LOG(D110)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.6">
       <c r="A111" s="1" t="s">
         <v>177</v>
       </c>
@@ -4671,17 +5004,20 @@
         <v>187.3321</v>
       </c>
       <c r="G111">
-        <v>0.22</v>
+        <v>26.806039999999999</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I111">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <f>LOG(D111)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.6">
       <c r="A112" s="1" t="s">
         <v>179</v>
       </c>
@@ -4701,17 +5037,20 @@
         <v>160.81444999999999</v>
       </c>
       <c r="G112">
-        <v>0.22</v>
+        <v>23.681605000000001</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I112">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <f>LOG(D112)</f>
         <v>2.1461280356782382</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:10" ht="15.6">
       <c r="A113" s="1" t="s">
         <v>180</v>
       </c>
@@ -4731,17 +5070,20 @@
         <v>236.78925000000001</v>
       </c>
       <c r="G113">
-        <v>0.22</v>
+        <v>13.993715</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I113">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <f>LOG(D113)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.6">
       <c r="A114" s="1" t="s">
         <v>182</v>
       </c>
@@ -4761,17 +5103,20 @@
         <v>232.660562</v>
       </c>
       <c r="G114">
-        <v>0.22</v>
+        <v>5.0041690000000001</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I114">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <f>LOG(D114)</f>
         <v>2.7708520116421442</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:10" ht="15.6">
       <c r="A115" s="1" t="s">
         <v>183</v>
       </c>
@@ -4791,17 +5136,20 @@
         <v>213.35216700000001</v>
       </c>
       <c r="G115">
-        <v>0.22</v>
+        <v>20.150732999999999</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I115">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <f>LOG(D115)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.6">
       <c r="A116" s="1" t="s">
         <v>185</v>
       </c>
@@ -4821,17 +5169,20 @@
         <v>241.15729999999999</v>
       </c>
       <c r="G116">
-        <v>0.22</v>
+        <v>14.29128</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I116">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <f>LOG(D116)</f>
         <v>1.3979400086720377</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:10" ht="15.6">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -4851,17 +5202,20 @@
         <v>199.80685</v>
       </c>
       <c r="G117">
-        <v>0.22</v>
+        <v>22.939295000000001</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I117">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <f>LOG(D117)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.6">
       <c r="A118" s="1" t="s">
         <v>189</v>
       </c>
@@ -4881,17 +5235,20 @@
         <v>194.67939999999999</v>
       </c>
       <c r="G118">
-        <v>0.22</v>
+        <v>24.812165</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I118">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <f>LOG(D118)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.6">
       <c r="A119" s="1" t="s">
         <v>191</v>
       </c>
@@ -4911,17 +5268,20 @@
         <v>194.38200000000001</v>
       </c>
       <c r="G119">
-        <v>0.22</v>
+        <v>24.82846</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I119">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <f>LOG(D119)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:10" ht="15.6">
       <c r="A120" s="1" t="s">
         <v>192</v>
       </c>
@@ -4941,17 +5301,20 @@
         <v>188.4359</v>
       </c>
       <c r="G120">
-        <v>0.22</v>
+        <v>27.067715</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I120">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <f>LOG(D120)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.6">
       <c r="A121" s="1" t="s">
         <v>194</v>
       </c>
@@ -4971,17 +5334,20 @@
         <v>184.1395</v>
       </c>
       <c r="G121">
-        <v>0.22</v>
+        <v>26.960654999999999</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I121">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <f>LOG(D121)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.6">
       <c r="A122" s="1" t="s">
         <v>195</v>
       </c>
@@ -5001,17 +5367,20 @@
         <v>131.97941700000001</v>
       </c>
       <c r="G122">
-        <v>0.22</v>
+        <v>6.6343920000000001</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I122">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <f>LOG(D122)</f>
         <v>2.7403626894942437</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:10" ht="15.6">
       <c r="A123" s="1" t="s">
         <v>196</v>
       </c>
@@ -5031,17 +5400,20 @@
         <v>226.89449999999999</v>
       </c>
       <c r="G123">
-        <v>0.22</v>
+        <v>17.46236</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I123">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <f>LOG(D123)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.6">
       <c r="A124" s="1" t="s">
         <v>198</v>
       </c>
@@ -5061,17 +5433,20 @@
         <v>226.27440000000001</v>
       </c>
       <c r="G124">
-        <v>0.22</v>
+        <v>16.270299999999999</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I124">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <f>LOG(D124)</f>
         <v>1.4771212547196624</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:10" ht="15.6">
       <c r="A125" s="1" t="s">
         <v>200</v>
       </c>
@@ -5091,17 +5466,20 @@
         <v>226.89449999999999</v>
       </c>
       <c r="G125">
-        <v>0.22</v>
+        <v>17.46236</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I125">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <f>LOG(D125)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.6">
       <c r="A126" s="1" t="s">
         <v>201</v>
       </c>
@@ -5121,17 +5499,20 @@
         <v>195.77195</v>
       </c>
       <c r="G126">
-        <v>0.22</v>
+        <v>26.478605000000002</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I126">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <f>LOG(D126)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.6">
       <c r="A127" s="1" t="s">
         <v>203</v>
       </c>
@@ -5151,17 +5532,20 @@
         <v>242.84049999999999</v>
       </c>
       <c r="G127">
-        <v>0.22</v>
+        <v>14.316750000000001</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I127">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <f>LOG(D127)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.6">
       <c r="A128" s="1" t="s">
         <v>204</v>
       </c>
@@ -5181,17 +5565,20 @@
         <v>228.11654999999999</v>
       </c>
       <c r="G128">
-        <v>0.22</v>
+        <v>16.747029999999999</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I128">
-        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <f>LOG(D128)</f>
         <v>1.9030899869919435</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:10" ht="15.6">
       <c r="A129" s="1" t="s">
         <v>206</v>
       </c>
@@ -5211,17 +5598,20 @@
         <v>232.28725</v>
       </c>
       <c r="G129">
-        <v>0.22</v>
+        <v>17.303004999999999</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I129">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <f>LOG(D129)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.6">
       <c r="A130" s="1" t="s">
         <v>207</v>
       </c>
@@ -5241,17 +5631,20 @@
         <v>213.68889999999999</v>
       </c>
       <c r="G130">
-        <v>0.22</v>
+        <v>20.481195</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I130">
-        <f t="shared" si="1"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <f>LOG(D130)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.6">
       <c r="A131" s="1" t="s">
         <v>209</v>
       </c>
@@ -5271,17 +5664,20 @@
         <v>192.24618699999999</v>
       </c>
       <c r="G131">
-        <v>0.22</v>
+        <v>18.129193999999998</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I188" si="2">LOG(D131)</f>
+        <v>3</v>
+      </c>
+      <c r="J131">
+        <f>LOG(D131)</f>
         <v>2.3979400086720375</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:10" ht="15.6">
       <c r="A132" s="1" t="s">
         <v>210</v>
       </c>
@@ -5301,17 +5697,20 @@
         <v>220.94919999999999</v>
       </c>
       <c r="G132">
-        <v>0.22</v>
+        <v>18.82554</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I132">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <f>LOG(D132)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.6">
       <c r="A133" s="1" t="s">
         <v>212</v>
       </c>
@@ -5331,17 +5730,20 @@
         <v>152.71950000000001</v>
       </c>
       <c r="G133">
-        <v>0.22</v>
+        <v>10.496305</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I133">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <f>LOG(D133)</f>
         <v>2.8692317197309762</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:10" ht="15.6">
       <c r="A134" s="1" t="s">
         <v>213</v>
       </c>
@@ -5361,17 +5763,20 @@
         <v>229.36808300000001</v>
       </c>
       <c r="G134">
-        <v>0.22</v>
+        <v>17.627141999999999</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I134">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <f>LOG(D134)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.6">
       <c r="A135" s="1" t="s">
         <v>215</v>
       </c>
@@ -5391,17 +5796,20 @@
         <v>229.097917</v>
       </c>
       <c r="G135">
-        <v>0.22</v>
+        <v>17.585567000000001</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I135">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <f>LOG(D135)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:10" ht="15.6">
       <c r="A136" s="1" t="s">
         <v>216</v>
       </c>
@@ -5421,17 +5829,20 @@
         <v>195.50287499999999</v>
       </c>
       <c r="G136">
-        <v>0.22</v>
+        <v>27.167300000000001</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I136">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <f>LOG(D136)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.6">
       <c r="A137" s="1" t="s">
         <v>218</v>
       </c>
@@ -5451,17 +5862,20 @@
         <v>123.20099999999999</v>
       </c>
       <c r="G137">
-        <v>0.22</v>
+        <v>20.585740000000001</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I137">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <f>LOG(D137)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:10" ht="15.6">
       <c r="A138" s="1" t="s">
         <v>219</v>
       </c>
@@ -5481,17 +5895,20 @@
         <v>0.83231299999999997</v>
       </c>
       <c r="G138">
-        <v>0.22</v>
+        <v>8.8871310000000001</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I138">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <f>LOG(D138)</f>
         <v>2.5740312677277188</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:10" ht="15.6">
       <c r="A139" s="1" t="s">
         <v>220</v>
       </c>
@@ -5511,17 +5928,20 @@
         <v>201.51837499999999</v>
       </c>
       <c r="G139">
-        <v>0.22</v>
+        <v>24.612275</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I139">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <f>LOG(D139)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.6">
       <c r="A140" s="1" t="s">
         <v>222</v>
       </c>
@@ -5541,17 +5961,20 @@
         <v>196.2029</v>
       </c>
       <c r="G140">
-        <v>0.22</v>
+        <v>26.605515</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I140">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <f>LOG(D140)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.6">
       <c r="A141" s="1" t="s">
         <v>224</v>
       </c>
@@ -5571,17 +5994,20 @@
         <v>41.525149999999996</v>
       </c>
       <c r="G141">
-        <v>0.22</v>
+        <v>17.291965000000001</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I141">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <f>LOG(D141)</f>
         <v>1.7781512503836436</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:10" ht="15.6">
       <c r="A142" s="1" t="s">
         <v>225</v>
       </c>
@@ -5601,17 +6027,20 @@
         <v>1.0133129999999999</v>
       </c>
       <c r="G142">
-        <v>0.22</v>
+        <v>8.1498939999999997</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I142">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J142">
+        <f>LOG(D142)</f>
         <v>2.6532125137753435</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:10" ht="15.6">
       <c r="A143" s="1" t="s">
         <v>226</v>
       </c>
@@ -5631,17 +6060,20 @@
         <v>183.94200000000001</v>
       </c>
       <c r="G143">
-        <v>0.22</v>
+        <v>26.396616999999999</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I143">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <f>LOG(D143)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.6">
       <c r="A144" s="1" t="s">
         <v>228</v>
       </c>
@@ -5661,17 +6093,20 @@
         <v>205.411</v>
       </c>
       <c r="G144">
-        <v>0.22</v>
+        <v>26.555662999999999</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I144">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <f>LOG(D144)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.6">
       <c r="A145" s="1" t="s">
         <v>230</v>
       </c>
@@ -5691,17 +6126,20 @@
         <v>244.03270000000001</v>
       </c>
       <c r="G145">
-        <v>0.22</v>
+        <v>13.410555</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I145">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <f>LOG(D145)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.6">
       <c r="A146" s="1" t="s">
         <v>232</v>
       </c>
@@ -5721,17 +6159,20 @@
         <v>108.231313</v>
       </c>
       <c r="G146">
-        <v>0.22</v>
+        <v>9.7350750000000001</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I146">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <f>LOG(D146)</f>
         <v>2.8061799739838871</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:10" ht="15.6">
       <c r="A147" s="1" t="s">
         <v>234</v>
       </c>
@@ -5751,17 +6192,20 @@
         <v>195.54124999999999</v>
       </c>
       <c r="G147">
-        <v>0.22</v>
+        <v>24.984559999999998</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I147">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J147">
+        <f>LOG(D147)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.6">
       <c r="A148" s="1" t="s">
         <v>235</v>
       </c>
@@ -5781,17 +6225,20 @@
         <v>193.38225</v>
       </c>
       <c r="G148">
-        <v>0.22</v>
+        <v>24.961604999999999</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I148">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J148">
+        <f>LOG(D148)</f>
         <v>2.0969100130080562</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:10" ht="15.6">
       <c r="A149" s="1" t="s">
         <v>236</v>
       </c>
@@ -5811,17 +6258,20 @@
         <v>299.00729999999999</v>
       </c>
       <c r="G149">
-        <v>0.22</v>
+        <v>7.48766</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I149">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J149">
+        <f>LOG(D149)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.6">
       <c r="A150" s="1" t="s">
         <v>238</v>
       </c>
@@ -5841,17 +6291,20 @@
         <v>303.31905</v>
       </c>
       <c r="G150">
-        <v>0.22</v>
+        <v>3.1072000000000002</v>
       </c>
       <c r="H150">
-        <v>3</v>
-      </c>
-      <c r="I150" t="e">
-        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="e">
+        <f>LOG(D150)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:10" ht="15.6">
       <c r="A151" s="1" t="s">
         <v>240</v>
       </c>
@@ -5871,17 +6324,20 @@
         <v>326.36090000000002</v>
       </c>
       <c r="G151">
-        <v>0.22</v>
+        <v>3.8245450000000001</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I151">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J151">
+        <f>LOG(D151)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:10" ht="15.6">
       <c r="A152" s="1" t="s">
         <v>241</v>
       </c>
@@ -5901,17 +6357,20 @@
         <v>385.28075000000001</v>
       </c>
       <c r="G152">
-        <v>0.22</v>
+        <v>-0.16031200000000001</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I152">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <f>LOG(D152)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.6">
       <c r="A153" s="1" t="s">
         <v>243</v>
       </c>
@@ -5931,17 +6390,20 @@
         <v>348.00062500000001</v>
       </c>
       <c r="G153">
-        <v>0.22</v>
+        <v>-1.2978499999999999</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I153">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J153">
+        <f>LOG(D153)</f>
         <v>1.5440680443502757</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:10" ht="15.6">
       <c r="A154" s="1" t="s">
         <v>244</v>
       </c>
@@ -5961,17 +6423,20 @@
         <v>369.28981199999998</v>
       </c>
       <c r="G154">
-        <v>0.22</v>
+        <v>1.3657049999999999</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I154">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <f>LOG(D154)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.6">
       <c r="A155" s="1" t="s">
         <v>246</v>
       </c>
@@ -5991,17 +6456,20 @@
         <v>296.22800000000001</v>
       </c>
       <c r="G155">
-        <v>0.22</v>
+        <v>1.47689</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I155">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J155">
+        <f>LOG(D155)</f>
         <v>2.2988530764097068</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:10" ht="15.6">
       <c r="A156" s="1" t="s">
         <v>247</v>
       </c>
@@ -6021,17 +6489,20 @@
         <v>314.71674999999999</v>
       </c>
       <c r="G156">
-        <v>0.22</v>
+        <v>1.0257050000000001</v>
       </c>
       <c r="H156">
-        <v>3</v>
-      </c>
-      <c r="I156" t="e">
-        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="I156">
+        <v>3</v>
+      </c>
+      <c r="J156" t="e">
+        <f>LOG(D156)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:10" ht="15.6">
       <c r="A157" s="1" t="s">
         <v>248</v>
       </c>
@@ -6051,17 +6522,20 @@
         <v>315.37205</v>
       </c>
       <c r="G157">
-        <v>0.22</v>
+        <v>9.9534999999999998E-2</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I157">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <f>LOG(D157)</f>
         <v>2.6981005456233897</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:10" ht="15.6">
       <c r="A158" s="1" t="s">
         <v>250</v>
       </c>
@@ -6081,17 +6555,20 @@
         <v>348.19666699999999</v>
       </c>
       <c r="G158">
-        <v>0.22</v>
+        <v>1.325833</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I158">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <f>LOG(D158)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.6">
       <c r="A159" s="1" t="s">
         <v>252</v>
       </c>
@@ -6111,17 +6588,20 @@
         <v>356.22391699999997</v>
       </c>
       <c r="G159">
-        <v>0.22</v>
+        <v>-1.5334920000000001</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I159">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <f>LOG(D159)</f>
         <v>1.4771212547196624</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:10" ht="15.6">
       <c r="A160" s="1" t="s">
         <v>254</v>
       </c>
@@ -6141,17 +6621,20 @@
         <v>388.30387500000001</v>
       </c>
       <c r="G160">
-        <v>0.22</v>
+        <v>-1.6497379999999999</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I160">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <f>LOG(D160)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.6">
       <c r="A161" s="1" t="s">
         <v>256</v>
       </c>
@@ -6171,17 +6654,20 @@
         <v>373.06099999999998</v>
       </c>
       <c r="G161">
-        <v>0.22</v>
+        <v>-1.6472439999999999</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I161">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <f>LOG(D161)</f>
         <v>1.2304489213782739</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:10" ht="15.6">
       <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
@@ -6201,17 +6687,20 @@
         <v>363.64850000000001</v>
       </c>
       <c r="G162">
-        <v>0.22</v>
+        <v>0.10149</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I162">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <f>LOG(D162)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.6">
       <c r="A163" s="1" t="s">
         <v>259</v>
       </c>
@@ -6231,17 +6720,20 @@
         <v>371.05844999999999</v>
       </c>
       <c r="G163">
-        <v>0.22</v>
+        <v>-0.60712500000000003</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I163">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <f>LOG(D163)</f>
         <v>1.3010299956639813</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:10" ht="15.6">
       <c r="A164" s="1" t="s">
         <v>260</v>
       </c>
@@ -6261,17 +6753,20 @@
         <v>293.88900000000001</v>
       </c>
       <c r="G164">
-        <v>0.22</v>
+        <v>1.5940399999999999</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I164">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J164">
+        <f>LOG(D164)</f>
         <v>2.4756711883244296</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:10" ht="15.6">
       <c r="A165" s="1" t="s">
         <v>261</v>
       </c>
@@ -6291,17 +6786,20 @@
         <v>340.44375000000002</v>
       </c>
       <c r="G165">
-        <v>0.22</v>
+        <v>1.48885</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I165">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <f>LOG(D165)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.6">
       <c r="A166" s="1" t="s">
         <v>263</v>
       </c>
@@ -6321,17 +6819,20 @@
         <v>336.04075</v>
       </c>
       <c r="G166">
-        <v>0.22</v>
+        <v>2.5693999999999999</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I166">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <f>LOG(D166)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.6">
       <c r="A167" s="1" t="s">
         <v>265</v>
       </c>
@@ -6351,17 +6852,20 @@
         <v>271.87439999999998</v>
       </c>
       <c r="G167">
-        <v>0.22</v>
+        <v>4.7913949999999996</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I167">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <f>LOG(D167)</f>
         <v>2.5921767573958667</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:10" ht="15.6">
       <c r="A168" s="1" t="s">
         <v>267</v>
       </c>
@@ -6381,17 +6885,20 @@
         <v>293.84674999999999</v>
       </c>
       <c r="G168">
-        <v>0.22</v>
+        <v>5.2952649999999997</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I168">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J168">
+        <f>LOG(D168)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.6">
       <c r="A169" s="1" t="s">
         <v>268</v>
       </c>
@@ -6411,17 +6918,20 @@
         <v>323.90156300000001</v>
       </c>
       <c r="G169">
-        <v>0.22</v>
+        <v>2.4961250000000001</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I169">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <f>LOG(D169)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.6">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -6441,17 +6951,20 @@
         <v>273.02834999999999</v>
       </c>
       <c r="G170">
-        <v>0.22</v>
+        <v>4.2017300000000004</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I170">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J170">
+        <f>LOG(D170)</f>
         <v>2.5453071164658239</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:10" ht="15.6">
       <c r="A171" s="1" t="s">
         <v>271</v>
       </c>
@@ -6471,17 +6984,20 @@
         <v>328.54665</v>
       </c>
       <c r="G171">
-        <v>0.22</v>
+        <v>1.4453149999999999</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I171">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <f>LOG(D171)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15.6">
       <c r="A172" s="1" t="s">
         <v>273</v>
       </c>
@@ -6501,17 +7017,20 @@
         <v>230.08609999999999</v>
       </c>
       <c r="G172">
-        <v>0.22</v>
+        <v>3.0355400000000001</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I172">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J172">
+        <f>LOG(D172)</f>
         <v>2.6138418218760693</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:10" ht="15.6">
       <c r="A173" s="1" t="s">
         <v>274</v>
       </c>
@@ -6531,17 +7050,20 @@
         <v>357.164917</v>
       </c>
       <c r="G173">
-        <v>0.22</v>
+        <v>2.5078870000000002</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I173">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <f>LOG(D173)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.6">
       <c r="A174" s="1" t="s">
         <v>275</v>
       </c>
@@ -6561,17 +7083,20 @@
         <v>303.32600000000002</v>
       </c>
       <c r="G174">
-        <v>0.22</v>
+        <v>3.1964999999999999</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I174">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <f>LOG(D174)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.6">
       <c r="A175" s="1" t="s">
         <v>277</v>
       </c>
@@ -6591,17 +7116,20 @@
         <v>353.19349999999997</v>
       </c>
       <c r="G175">
-        <v>0.22</v>
+        <v>-0.47922500000000001</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I175">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <f>LOG(D175)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.6">
       <c r="A176" s="1" t="s">
         <v>279</v>
       </c>
@@ -6621,17 +7149,20 @@
         <v>368.52474999999998</v>
       </c>
       <c r="G176">
-        <v>0.22</v>
+        <v>-1.32986</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I176">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J176">
+        <f>LOG(D176)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.6">
       <c r="A177" s="1" t="s">
         <v>281</v>
       </c>
@@ -6651,17 +7182,20 @@
         <v>343.87783300000001</v>
       </c>
       <c r="G177">
-        <v>0.22</v>
+        <v>-0.409335</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I177">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <f>LOG(D177)</f>
         <v>1.5563025007672873</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:10" ht="15.6">
       <c r="A178" s="1" t="s">
         <v>282</v>
       </c>
@@ -6681,17 +7215,20 @@
         <v>396.84808299999997</v>
       </c>
       <c r="G178">
-        <v>0.22</v>
+        <v>-0.98783299999999996</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I178">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J178">
+        <f>LOG(D178)</f>
         <v>1.5440680443502757</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:10" ht="15.6">
       <c r="A179" s="1" t="s">
         <v>284</v>
       </c>
@@ -6711,17 +7248,20 @@
         <v>368.66262499999999</v>
       </c>
       <c r="G179">
-        <v>0.22</v>
+        <v>-0.58533299999999999</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I179">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J179">
+        <f>LOG(D179)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.6">
       <c r="A180" s="1" t="s">
         <v>285</v>
       </c>
@@ -6741,17 +7281,20 @@
         <v>339.44749999999999</v>
       </c>
       <c r="G180">
-        <v>0.22</v>
+        <v>2.4533999999999998</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I180">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J180">
+        <f>LOG(D180)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15.6">
       <c r="A181" s="1" t="s">
         <v>287</v>
       </c>
@@ -6771,17 +7314,20 @@
         <v>271.06412499999999</v>
       </c>
       <c r="G181">
-        <v>0.22</v>
+        <v>11.095470000000001</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I181">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J181">
+        <f>LOG(D181)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15.6">
       <c r="A182" s="1" t="s">
         <v>289</v>
       </c>
@@ -6801,17 +7347,20 @@
         <v>266.47312499999998</v>
       </c>
       <c r="G182">
-        <v>0.22</v>
+        <v>10.790179999999999</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I182">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J182">
+        <f>LOG(D182)</f>
         <v>1.6020599913279623</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:10" ht="15.6">
       <c r="A183" s="1" t="s">
         <v>290</v>
       </c>
@@ -6831,17 +7380,20 @@
         <v>311.78269999999998</v>
       </c>
       <c r="G183">
-        <v>0.22</v>
+        <v>8.4744700000000002</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I183">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <f>LOG(D183)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15.6">
       <c r="A184" s="1" t="s">
         <v>292</v>
       </c>
@@ -6861,17 +7413,20 @@
         <v>304.04730000000001</v>
       </c>
       <c r="G184">
-        <v>0.22</v>
+        <v>6.73489</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I184">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J184">
+        <f>LOG(D184)</f>
         <v>1.3979400086720377</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:10" ht="15.6">
       <c r="A185" s="1" t="s">
         <v>293</v>
       </c>
@@ -6891,17 +7446,20 @@
         <v>363.00081299999999</v>
       </c>
       <c r="G185">
-        <v>0.22</v>
+        <v>1.8996120000000001</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="I185">
-        <f t="shared" si="2"/>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="15.6">
+        <v>3</v>
+      </c>
+      <c r="J185">
+        <f>LOG(D185)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.6">
       <c r="A186" s="1" t="s">
         <v>294</v>
       </c>
@@ -6921,17 +7479,20 @@
         <v>229.908917</v>
       </c>
       <c r="G186">
-        <v>0.22</v>
+        <v>15.181967</v>
       </c>
       <c r="H186">
+        <v>0.22</v>
+      </c>
+      <c r="I186">
         <v>1.6</v>
       </c>
-      <c r="I186">
-        <f t="shared" si="2"/>
+      <c r="J186">
+        <f>LOG(D186)</f>
         <v>1.6989700043360187</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:10" ht="15.6">
       <c r="A187" s="1" t="s">
         <v>296</v>
       </c>
@@ -6951,17 +7512,20 @@
         <v>221.55158299999999</v>
       </c>
       <c r="G187">
-        <v>0.22</v>
+        <v>16.974267000000001</v>
       </c>
       <c r="H187">
+        <v>0.22</v>
+      </c>
+      <c r="I187">
         <v>1.6</v>
       </c>
-      <c r="I187">
-        <f t="shared" si="2"/>
+      <c r="J187">
+        <f>LOG(D187)</f>
         <v>1.4771212547196624</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:10" ht="15.6">
       <c r="A188" s="1" t="s">
         <v>298</v>
       </c>
@@ -6977,14 +7541,14 @@
       <c r="E188" t="s">
         <v>313</v>
       </c>
-      <c r="G188">
-        <v>0.22</v>
-      </c>
       <c r="H188">
+        <v>0.22</v>
+      </c>
+      <c r="I188">
         <v>1.6</v>
       </c>
-      <c r="I188">
-        <f t="shared" si="2"/>
+      <c r="J188">
+        <f>LOG(D188)</f>
         <v>0.95424250943932487</v>
       </c>
     </row>
